--- a/data/3.20_製品データベース.xlsx
+++ b/data/3.20_製品データベース.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msrel\OneDrive\デスクトップ\Git\Scraping_k\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5431B69E-CCC1-4138-9B8F-14AA39DAEACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075" xr2:uid="{939FEF90-20E1-46DA-AF70-F1AC69A79FE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="接続材" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="394">
   <si>
     <t>製品名</t>
     <rPh sb="0" eb="3">
@@ -445,20 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>min（電線2）</t>
-    <rPh sb="4" eb="6">
-      <t>デンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max（電線2）</t>
-    <rPh sb="4" eb="6">
-      <t>デンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10φ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1357,13 +1342,6 @@
     <t>銅</t>
     <rPh sb="0" eb="1">
       <t>ドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>区分</t>
-    <rPh sb="0" eb="2">
-      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2437,15 +2415,57 @@
   <si>
     <t>Vコン6</t>
   </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -2495,7 +2515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2512,9 +2532,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2851,12 +2868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457609DB-23D8-4819-B641-E1E1396FDE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L145" sqref="L145"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2875,58 +2892,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>199</v>
+        <v>384</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
+        <v>388</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="R1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -2934,10 +2951,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2948,16 +2965,16 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="10">
         <v>2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="10">
         <v>8</v>
       </c>
       <c r="K2" t="s">
@@ -2978,10 +2995,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2992,16 +3009,16 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>14</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="10">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -3025,10 +3042,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -3039,16 +3056,16 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>38</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="10">
         <v>38</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="10">
         <v>38</v>
       </c>
       <c r="K4" t="s">
@@ -3072,10 +3089,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -3086,16 +3103,16 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="10">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="10">
         <v>60</v>
       </c>
       <c r="K5" t="s">
@@ -3125,10 +3142,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3139,16 +3156,16 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>80</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <v>100</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="10">
         <v>100</v>
       </c>
       <c r="K6" t="s">
@@ -3172,10 +3189,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -3186,16 +3203,16 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>125</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>125</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>125</v>
       </c>
       <c r="K7" t="s">
@@ -3219,10 +3236,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -3233,16 +3250,16 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>150</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>150</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <v>22</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="10">
         <v>150</v>
       </c>
       <c r="K8" t="s">
@@ -3257,10 +3274,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -3271,16 +3288,16 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>250</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <v>250</v>
       </c>
-      <c r="I9" s="4">
-        <v>60</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="10">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10">
         <v>250</v>
       </c>
       <c r="K9" t="s">
@@ -3295,40 +3312,40 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="10">
         <v>2.6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="10">
         <v>8</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="10">
         <v>2.6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="10">
         <v>8</v>
       </c>
       <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s">
         <v>141</v>
-      </c>
-      <c r="L10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -3336,40 +3353,40 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="10">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>14</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="10">
         <v>2.6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="10">
         <v>8</v>
       </c>
       <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
         <v>141</v>
-      </c>
-      <c r="L11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -3377,40 +3394,40 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="10">
         <v>4</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>14</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="10">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="10">
         <v>14</v>
       </c>
       <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
         <v>141</v>
-      </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -3418,40 +3435,40 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="10">
         <v>22</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="10">
         <v>2.6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="10">
         <v>8</v>
       </c>
       <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -3459,40 +3476,40 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="10">
         <v>22</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10">
         <v>4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="10">
         <v>22</v>
       </c>
       <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -3500,40 +3517,40 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="10">
         <v>38</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="10">
         <v>38</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10">
         <v>3.2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="10">
         <v>22</v>
       </c>
       <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
         <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -3541,40 +3558,40 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="10">
         <v>38</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="10">
         <v>38</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="10">
         <v>38</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="10">
         <v>38</v>
       </c>
       <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -3582,40 +3599,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7">
-        <v>60</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="10">
+        <v>60</v>
+      </c>
+      <c r="H17" s="10">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10">
         <v>3.2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="10">
         <v>22</v>
       </c>
       <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="s">
         <v>141</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -3623,40 +3640,40 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7">
-        <v>60</v>
-      </c>
-      <c r="H18" s="7">
-        <v>60</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="G18" s="10">
+        <v>60</v>
+      </c>
+      <c r="H18" s="10">
+        <v>60</v>
+      </c>
+      <c r="I18" s="10">
         <v>38</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="10">
         <v>38</v>
       </c>
       <c r="K18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" t="s">
         <v>141</v>
-      </c>
-      <c r="L18" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -3664,40 +3681,40 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="7">
-        <v>60</v>
-      </c>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7">
-        <v>60</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="G19" s="10">
+        <v>60</v>
+      </c>
+      <c r="H19" s="10">
+        <v>60</v>
+      </c>
+      <c r="I19" s="10">
+        <v>60</v>
+      </c>
+      <c r="J19" s="10">
         <v>60</v>
       </c>
       <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
         <v>141</v>
-      </c>
-      <c r="L19" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -3705,40 +3722,40 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="10">
         <v>100</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="10">
         <v>125</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
         <v>4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="10">
         <v>22</v>
       </c>
       <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
         <v>141</v>
-      </c>
-      <c r="L20" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -3746,40 +3763,40 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="10">
         <v>100</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="10">
         <v>125</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="10">
         <v>38</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="10">
         <v>38</v>
       </c>
       <c r="K21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s">
         <v>141</v>
-      </c>
-      <c r="L21" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -3787,40 +3804,40 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="10">
         <v>100</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="10">
         <v>125</v>
       </c>
-      <c r="I22" s="4">
-        <v>60</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" s="10">
+        <v>60</v>
+      </c>
+      <c r="J22" s="10">
         <v>60</v>
       </c>
       <c r="K22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" t="s">
         <v>141</v>
-      </c>
-      <c r="L22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -3828,40 +3845,40 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="10">
         <v>100</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="10">
         <v>125</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="10">
         <v>100</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="10">
         <v>125</v>
       </c>
       <c r="K23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -3869,40 +3886,40 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="10">
+        <v>212</v>
+      </c>
+      <c r="D24" s="9">
         <v>2.6</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>2.6</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>2.6</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>2.6</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>2.6</v>
       </c>
       <c r="K24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
         <v>141</v>
-      </c>
-      <c r="L24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -3910,40 +3927,40 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E25" t="s">
         <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>146</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>3.2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>3.2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>3.2</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>3.2</v>
       </c>
       <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" t="s">
         <v>141</v>
-      </c>
-      <c r="L25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -3951,40 +3968,40 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="10">
+        <v>212</v>
+      </c>
+      <c r="D26" s="9">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <v>14</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="10">
         <v>14</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="10">
         <v>14</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="10">
         <v>14</v>
       </c>
       <c r="K26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>142</v>
-      </c>
-      <c r="M26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -3992,41 +4009,41 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" t="str">
         <f>"Alスリーブ"&amp;D27&amp;"HD"</f>
         <v>AlスリーブH45T1HD</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="6">
+        <v>159</v>
+      </c>
+      <c r="G27" s="10">
         <v>2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
         <v>8</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="10">
         <v>25</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="10">
         <v>60</v>
       </c>
       <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
         <v>141</v>
-      </c>
-      <c r="L27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -4034,41 +4051,41 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
         <v>148</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ref="E28:E38" si="0">"Alスリーブ"&amp;D28&amp;"HD"</f>
         <v>AlスリーブH4T24HD</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="6">
+        <v>159</v>
+      </c>
+      <c r="G28" s="10">
         <v>4</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <v>38</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="10">
         <v>25</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="10">
         <v>38</v>
       </c>
       <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" t="s">
         <v>141</v>
-      </c>
-      <c r="L28" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -4076,41 +4093,41 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH5T24HD</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="6">
+        <v>159</v>
+      </c>
+      <c r="G29" s="10">
         <v>4</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
         <v>38</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="10">
         <v>55</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="10">
         <v>60</v>
       </c>
       <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
         <v>141</v>
-      </c>
-      <c r="L29" t="s">
-        <v>142</v>
-      </c>
-      <c r="M29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -4118,41 +4135,41 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH5T5HD</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="7">
+        <v>159</v>
+      </c>
+      <c r="G30" s="10">
         <v>55</v>
       </c>
-      <c r="H30" s="4">
-        <v>60</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="10">
+        <v>60</v>
+      </c>
+      <c r="I30" s="10">
         <v>55</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="10">
         <v>60</v>
       </c>
       <c r="K30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
         <v>141</v>
-      </c>
-      <c r="L30" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -4160,41 +4177,41 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T1HD</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="6">
+        <v>159</v>
+      </c>
+      <c r="G31" s="10">
         <v>2</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="10">
         <v>80</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="10">
         <v>125</v>
       </c>
       <c r="K31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
         <v>141</v>
-      </c>
-      <c r="L31" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -4202,41 +4219,41 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T24HD</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="6">
+        <v>159</v>
+      </c>
+      <c r="G32" s="10">
         <v>4</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="10">
         <v>38</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="10">
         <v>80</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="10">
         <v>125</v>
       </c>
       <c r="K32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
         <v>141</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -4244,41 +4261,41 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T5HD</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="7">
+        <v>159</v>
+      </c>
+      <c r="G33" s="10">
         <v>55</v>
       </c>
-      <c r="H33" s="4">
-        <v>60</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33" s="10">
+        <v>60</v>
+      </c>
+      <c r="I33" s="10">
         <v>80</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="10">
         <v>125</v>
       </c>
       <c r="K33" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" t="s">
         <v>141</v>
-      </c>
-      <c r="L33" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -4286,41 +4303,41 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T6HD</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="7">
+        <v>159</v>
+      </c>
+      <c r="G34" s="10">
         <v>80</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="10">
         <v>125</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="10">
         <v>80</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="10">
         <v>125</v>
       </c>
       <c r="K34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34" t="s">
         <v>141</v>
-      </c>
-      <c r="L34" t="s">
-        <v>142</v>
-      </c>
-      <c r="M34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -4328,41 +4345,41 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T1HD</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="6">
+        <v>159</v>
+      </c>
+      <c r="G35" s="10">
         <v>2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
         <v>8</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="10">
         <v>125</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="10">
         <v>200</v>
       </c>
       <c r="K35" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" t="s">
         <v>141</v>
-      </c>
-      <c r="L35" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -4370,41 +4387,41 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T25HD</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="6">
+        <v>159</v>
+      </c>
+      <c r="G36" s="10">
         <v>4</v>
       </c>
-      <c r="H36" s="4">
-        <v>60</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="10">
+        <v>60</v>
+      </c>
+      <c r="I36" s="10">
         <v>125</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="10">
         <v>200</v>
       </c>
       <c r="K36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M36" t="s">
         <v>141</v>
-      </c>
-      <c r="L36" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -4412,41 +4429,41 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T6HD</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="7">
+        <v>159</v>
+      </c>
+      <c r="G37" s="10">
         <v>80</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
         <v>125</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="10">
         <v>125</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="10">
         <v>200</v>
       </c>
       <c r="K37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37" t="s">
         <v>141</v>
-      </c>
-      <c r="L37" t="s">
-        <v>142</v>
-      </c>
-      <c r="M37" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -4454,41 +4471,41 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T7HD</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="7">
+        <v>159</v>
+      </c>
+      <c r="G38" s="10">
         <v>125</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
         <v>200</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="10">
         <v>125</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="10">
         <v>200</v>
       </c>
       <c r="K38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M38" t="s">
         <v>141</v>
-      </c>
-      <c r="L38" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -4496,37 +4513,37 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="H39" s="10">
+        <v>8</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J39" s="10">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39" t="s">
         <v>201</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="H39" s="4">
-        <v>8</v>
-      </c>
-      <c r="I39" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="J39" s="4">
-        <v>8</v>
-      </c>
-      <c r="K39" t="s">
-        <v>203</v>
-      </c>
-      <c r="L39" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -4534,37 +4551,37 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="10">
+        <v>14</v>
+      </c>
+      <c r="H40" s="10">
+        <v>14</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J40" s="10">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>200</v>
+      </c>
+      <c r="L40" t="s">
         <v>201</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="7">
-        <v>14</v>
-      </c>
-      <c r="H40" s="4">
-        <v>14</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="J40" s="4">
-        <v>8</v>
-      </c>
-      <c r="K40" t="s">
-        <v>203</v>
-      </c>
-      <c r="L40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -4572,37 +4589,37 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="10">
+        <v>5</v>
+      </c>
+      <c r="H41" s="10">
+        <v>22</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J41" s="10">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" t="s">
         <v>201</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" t="s">
-        <v>198</v>
-      </c>
-      <c r="G41" s="6">
-        <v>5</v>
-      </c>
-      <c r="H41" s="4">
-        <v>22</v>
-      </c>
-      <c r="I41" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="J41" s="4">
-        <v>8</v>
-      </c>
-      <c r="K41" t="s">
-        <v>203</v>
-      </c>
-      <c r="L41" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -4610,37 +4627,37 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="10">
+        <v>5</v>
+      </c>
+      <c r="H42" s="10">
+        <v>22</v>
+      </c>
+      <c r="I42" s="10">
+        <v>14</v>
+      </c>
+      <c r="J42" s="10">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" t="s">
         <v>201</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" t="s">
-        <v>198</v>
-      </c>
-      <c r="G42" s="6">
-        <v>5</v>
-      </c>
-      <c r="H42" s="4">
-        <v>22</v>
-      </c>
-      <c r="I42" s="4">
-        <v>14</v>
-      </c>
-      <c r="J42" s="4">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>203</v>
-      </c>
-      <c r="L42" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -4648,37 +4665,37 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="10">
+        <v>38</v>
+      </c>
+      <c r="H43" s="10">
+        <v>38</v>
+      </c>
+      <c r="I43" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J43" s="10">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>200</v>
+      </c>
+      <c r="L43" t="s">
         <v>201</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G43" s="7">
-        <v>38</v>
-      </c>
-      <c r="H43" s="4">
-        <v>38</v>
-      </c>
-      <c r="I43" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J43" s="4">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
-        <v>203</v>
-      </c>
-      <c r="L43" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -4686,37 +4703,37 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="10">
+        <v>60</v>
+      </c>
+      <c r="H44" s="10">
+        <v>60</v>
+      </c>
+      <c r="I44" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J44" s="10">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" t="s">
         <v>201</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>198</v>
-      </c>
-      <c r="G44" s="7">
-        <v>60</v>
-      </c>
-      <c r="H44" s="4">
-        <v>60</v>
-      </c>
-      <c r="I44" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J44" s="4">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>203</v>
-      </c>
-      <c r="L44" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -4724,37 +4741,37 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="10">
+        <v>60</v>
+      </c>
+      <c r="H45" s="10">
+        <v>60</v>
+      </c>
+      <c r="I45" s="10">
+        <v>38</v>
+      </c>
+      <c r="J45" s="10">
+        <v>38</v>
+      </c>
+      <c r="K45" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" t="s">
         <v>201</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="7">
-        <v>60</v>
-      </c>
-      <c r="H45" s="4">
-        <v>60</v>
-      </c>
-      <c r="I45" s="4">
-        <v>38</v>
-      </c>
-      <c r="J45" s="4">
-        <v>38</v>
-      </c>
-      <c r="K45" t="s">
-        <v>203</v>
-      </c>
-      <c r="L45" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -4762,37 +4779,37 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="10">
+        <v>60</v>
+      </c>
+      <c r="H46" s="10">
+        <v>60</v>
+      </c>
+      <c r="I46" s="10">
+        <v>60</v>
+      </c>
+      <c r="J46" s="10">
+        <v>60</v>
+      </c>
+      <c r="K46" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" t="s">
         <v>201</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="7">
-        <v>60</v>
-      </c>
-      <c r="H46" s="4">
-        <v>60</v>
-      </c>
-      <c r="I46" s="4">
-        <v>60</v>
-      </c>
-      <c r="J46" s="4">
-        <v>60</v>
-      </c>
-      <c r="K46" t="s">
-        <v>203</v>
-      </c>
-      <c r="L46" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -4800,37 +4817,37 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="10">
+        <v>80</v>
+      </c>
+      <c r="H47" s="10">
+        <v>100</v>
+      </c>
+      <c r="I47" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J47" s="10">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
+        <v>200</v>
+      </c>
+      <c r="L47" t="s">
         <v>201</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" t="s">
-        <v>198</v>
-      </c>
-      <c r="G47" s="7">
-        <v>80</v>
-      </c>
-      <c r="H47" s="4">
-        <v>100</v>
-      </c>
-      <c r="I47" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J47" s="4">
-        <v>38</v>
-      </c>
-      <c r="K47" t="s">
-        <v>203</v>
-      </c>
-      <c r="L47" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -4838,37 +4855,37 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="10">
+        <v>80</v>
+      </c>
+      <c r="H48" s="10">
+        <v>100</v>
+      </c>
+      <c r="I48" s="10">
+        <v>60</v>
+      </c>
+      <c r="J48" s="10">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
+        <v>200</v>
+      </c>
+      <c r="L48" t="s">
         <v>201</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="7">
-        <v>80</v>
-      </c>
-      <c r="H48" s="4">
-        <v>100</v>
-      </c>
-      <c r="I48" s="4">
-        <v>60</v>
-      </c>
-      <c r="J48" s="4">
-        <v>60</v>
-      </c>
-      <c r="K48" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -4876,37 +4893,37 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="10">
+        <v>80</v>
+      </c>
+      <c r="H49" s="10">
+        <v>100</v>
+      </c>
+      <c r="I49" s="10">
+        <v>80</v>
+      </c>
+      <c r="J49" s="10">
+        <v>100</v>
+      </c>
+      <c r="K49" t="s">
+        <v>200</v>
+      </c>
+      <c r="L49" t="s">
         <v>201</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="7">
-        <v>80</v>
-      </c>
-      <c r="H49" s="4">
-        <v>100</v>
-      </c>
-      <c r="I49" s="4">
-        <v>80</v>
-      </c>
-      <c r="J49" s="4">
-        <v>100</v>
-      </c>
-      <c r="K49" t="s">
-        <v>203</v>
-      </c>
-      <c r="L49" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -4914,37 +4931,37 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="10">
+        <v>150</v>
+      </c>
+      <c r="H50" s="10">
+        <v>150</v>
+      </c>
+      <c r="I50" s="10">
+        <v>5</v>
+      </c>
+      <c r="J50" s="10">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>200</v>
+      </c>
+      <c r="L50" t="s">
         <v>201</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" t="s">
-        <v>198</v>
-      </c>
-      <c r="G50" s="7">
-        <v>150</v>
-      </c>
-      <c r="H50" s="4">
-        <v>150</v>
-      </c>
-      <c r="I50" s="4">
-        <v>5</v>
-      </c>
-      <c r="J50" s="4">
-        <v>38</v>
-      </c>
-      <c r="K50" t="s">
-        <v>203</v>
-      </c>
-      <c r="L50" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -4952,37 +4969,37 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="10">
+        <v>150</v>
+      </c>
+      <c r="H51" s="10">
+        <v>150</v>
+      </c>
+      <c r="I51" s="10">
+        <v>60</v>
+      </c>
+      <c r="J51" s="10">
+        <v>125</v>
+      </c>
+      <c r="K51" t="s">
+        <v>200</v>
+      </c>
+      <c r="L51" t="s">
         <v>201</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" t="s">
-        <v>198</v>
-      </c>
-      <c r="G51" s="7">
-        <v>150</v>
-      </c>
-      <c r="H51" s="4">
-        <v>150</v>
-      </c>
-      <c r="I51" s="4">
-        <v>60</v>
-      </c>
-      <c r="J51" s="4">
-        <v>125</v>
-      </c>
-      <c r="K51" t="s">
-        <v>203</v>
-      </c>
-      <c r="L51" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -4990,37 +5007,37 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="10">
+        <v>5</v>
+      </c>
+      <c r="H52" s="10">
+        <v>22</v>
+      </c>
+      <c r="I52" s="10">
+        <v>200</v>
+      </c>
+      <c r="J52" s="10">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>200</v>
+      </c>
+      <c r="L52" t="s">
         <v>201</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="7">
-        <v>5</v>
-      </c>
-      <c r="H52" s="4">
-        <v>22</v>
-      </c>
-      <c r="I52" s="4">
-        <v>200</v>
-      </c>
-      <c r="J52" s="4">
-        <v>200</v>
-      </c>
-      <c r="K52" t="s">
-        <v>203</v>
-      </c>
-      <c r="L52" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -5028,37 +5045,37 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="10">
+        <v>38</v>
+      </c>
+      <c r="H53" s="10">
+        <v>60</v>
+      </c>
+      <c r="I53" s="10">
+        <v>200</v>
+      </c>
+      <c r="J53" s="10">
+        <v>200</v>
+      </c>
+      <c r="K53" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" t="s">
         <v>201</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" t="s">
-        <v>195</v>
-      </c>
-      <c r="F53" t="s">
-        <v>198</v>
-      </c>
-      <c r="G53" s="7">
-        <v>38</v>
-      </c>
-      <c r="H53" s="4">
-        <v>60</v>
-      </c>
-      <c r="I53" s="4">
-        <v>200</v>
-      </c>
-      <c r="J53" s="4">
-        <v>200</v>
-      </c>
-      <c r="K53" t="s">
-        <v>203</v>
-      </c>
-      <c r="L53" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -5066,37 +5083,37 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="10">
+        <v>60</v>
+      </c>
+      <c r="H54" s="10">
+        <v>60</v>
+      </c>
+      <c r="I54" s="10">
+        <v>125</v>
+      </c>
+      <c r="J54" s="10">
+        <v>125</v>
+      </c>
+      <c r="K54" t="s">
+        <v>200</v>
+      </c>
+      <c r="L54" t="s">
         <v>201</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" t="s">
-        <v>198</v>
-      </c>
-      <c r="G54" s="4">
-        <v>60</v>
-      </c>
-      <c r="H54" s="4">
-        <v>60</v>
-      </c>
-      <c r="I54" s="4">
-        <v>125</v>
-      </c>
-      <c r="J54" s="4">
-        <v>125</v>
-      </c>
-      <c r="K54" t="s">
-        <v>203</v>
-      </c>
-      <c r="L54" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -5104,37 +5121,37 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="10">
+        <v>150</v>
+      </c>
+      <c r="H55" s="10">
+        <v>200</v>
+      </c>
+      <c r="I55" s="10">
+        <v>60</v>
+      </c>
+      <c r="J55" s="10">
+        <v>150</v>
+      </c>
+      <c r="K55" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" t="s">
         <v>201</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G55" s="7">
-        <v>150</v>
-      </c>
-      <c r="H55" s="4">
-        <v>200</v>
-      </c>
-      <c r="I55" s="4">
-        <v>60</v>
-      </c>
-      <c r="J55" s="4">
-        <v>150</v>
-      </c>
-      <c r="K55" t="s">
-        <v>203</v>
-      </c>
-      <c r="L55" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -5142,30 +5159,30 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>206</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="10">
         <v>5</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="10">
         <v>5</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="10">
         <v>2.6</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="10">
         <v>5.5</v>
       </c>
     </row>
@@ -5174,30 +5191,30 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>207</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="7">
-        <v>60</v>
-      </c>
-      <c r="H57" s="4">
-        <v>60</v>
-      </c>
-      <c r="I57" s="4">
+      <c r="G57" s="10">
+        <v>60</v>
+      </c>
+      <c r="H57" s="10">
+        <v>60</v>
+      </c>
+      <c r="I57" s="10">
         <v>2.6</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="10">
         <v>5.5</v>
       </c>
     </row>
@@ -5206,30 +5223,30 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="10">
         <v>150</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="10">
         <v>150</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="10">
         <v>2.6</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="10">
         <v>5.5</v>
       </c>
     </row>
@@ -5238,13 +5255,13 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
         <v>212</v>
       </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>213</v>
+      <c r="D59" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E59" t="str">
         <f>"スリーブS"&amp;D59&amp;"T"</f>
@@ -5253,16 +5270,16 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="10">
         <v>5</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="10">
         <v>5</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="10">
         <v>5</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5271,12 +5288,12 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
         <v>212</v>
       </c>
-      <c r="C60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>60</v>
       </c>
       <c r="E60" t="str">
@@ -5286,16 +5303,16 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="7">
-        <v>60</v>
-      </c>
-      <c r="H60" s="7">
-        <v>60</v>
-      </c>
-      <c r="I60" s="7">
-        <v>60</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="G60" s="10">
+        <v>60</v>
+      </c>
+      <c r="H60" s="10">
+        <v>60</v>
+      </c>
+      <c r="I60" s="10">
+        <v>60</v>
+      </c>
+      <c r="J60" s="10">
         <v>60</v>
       </c>
     </row>
@@ -5304,12 +5321,12 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
         <v>212</v>
       </c>
-      <c r="C61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>150</v>
       </c>
       <c r="E61" t="str">
@@ -5319,16 +5336,16 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="10">
         <v>150</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="10">
         <v>150</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="10">
         <v>150</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="10">
         <v>150</v>
       </c>
     </row>
@@ -5337,10 +5354,10 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D62" s="4">
         <v>60</v>
@@ -5352,20 +5369,20 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="7">
-        <v>60</v>
-      </c>
-      <c r="H62" s="4">
-        <v>60</v>
-      </c>
-      <c r="I62" s="4">
-        <v>60</v>
-      </c>
-      <c r="J62" s="4">
+      <c r="G62" s="10">
+        <v>60</v>
+      </c>
+      <c r="H62" s="10">
+        <v>60</v>
+      </c>
+      <c r="I62" s="10">
+        <v>60</v>
+      </c>
+      <c r="J62" s="10">
         <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
@@ -5373,10 +5390,10 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D63" s="4">
         <v>150</v>
@@ -5388,20 +5405,20 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="10">
         <v>150</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="10">
         <v>150</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="10">
         <v>150</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="10">
         <v>150</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
@@ -5409,10 +5426,10 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" s="4">
         <v>22</v>
@@ -5424,16 +5441,16 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="10">
         <v>22</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="10">
         <v>22</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="10">
         <v>22</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="10">
         <v>22</v>
       </c>
     </row>
@@ -5442,10 +5459,10 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="4">
         <v>60</v>
@@ -5457,16 +5474,16 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="7">
-        <v>60</v>
-      </c>
-      <c r="H65" s="7">
-        <v>60</v>
-      </c>
-      <c r="I65" s="7">
-        <v>60</v>
-      </c>
-      <c r="J65" s="7">
+      <c r="G65" s="10">
+        <v>60</v>
+      </c>
+      <c r="H65" s="10">
+        <v>60</v>
+      </c>
+      <c r="I65" s="10">
+        <v>60</v>
+      </c>
+      <c r="J65" s="10">
         <v>60</v>
       </c>
     </row>
@@ -5475,10 +5492,10 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D66" s="4">
         <v>100</v>
@@ -5490,16 +5507,16 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="10">
         <v>100</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="10">
         <v>100</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="10">
         <v>100</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="10">
         <v>100</v>
       </c>
     </row>
@@ -5508,10 +5525,10 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" s="4">
         <v>200</v>
@@ -5523,16 +5540,16 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="10">
         <v>200</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="10">
         <v>200</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="10">
         <v>200</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="10">
         <v>200</v>
       </c>
     </row>
@@ -5541,37 +5558,37 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" t="s">
         <v>219</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" s="10">
+        <v>4</v>
+      </c>
+      <c r="H68" s="10">
+        <v>14</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J68" s="10">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
+        <v>218</v>
+      </c>
+      <c r="L68" t="s">
         <v>201</v>
-      </c>
-      <c r="D68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" t="s">
-        <v>238</v>
-      </c>
-      <c r="F68" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="7">
-        <v>4</v>
-      </c>
-      <c r="H68" s="7">
-        <v>14</v>
-      </c>
-      <c r="I68" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="J68" s="7">
-        <v>8</v>
-      </c>
-      <c r="K68" t="s">
-        <v>221</v>
-      </c>
-      <c r="L68" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -5579,37 +5596,37 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="10">
+        <v>5</v>
+      </c>
+      <c r="H69" s="10">
+        <v>22</v>
+      </c>
+      <c r="I69" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J69" s="10">
+        <v>8</v>
+      </c>
+      <c r="K69" t="s">
+        <v>218</v>
+      </c>
+      <c r="L69" t="s">
         <v>201</v>
-      </c>
-      <c r="D69" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" t="s">
-        <v>239</v>
-      </c>
-      <c r="F69" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" s="7">
-        <v>5</v>
-      </c>
-      <c r="H69" s="7">
-        <v>22</v>
-      </c>
-      <c r="I69" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="J69" s="7">
-        <v>8</v>
-      </c>
-      <c r="K69" t="s">
-        <v>221</v>
-      </c>
-      <c r="L69" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
@@ -5617,37 +5634,37 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="10">
+        <v>4</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I70" s="10">
+        <v>4</v>
+      </c>
+      <c r="J70" s="10">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>218</v>
+      </c>
+      <c r="L70" t="s">
         <v>201</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E70" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" t="s">
-        <v>220</v>
-      </c>
-      <c r="G70" s="7">
-        <v>4</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I70" s="7">
-        <v>4</v>
-      </c>
-      <c r="J70" s="7">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>221</v>
-      </c>
-      <c r="L70" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
@@ -5655,37 +5672,37 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="10">
+        <v>5</v>
+      </c>
+      <c r="H71" s="10">
+        <v>22</v>
+      </c>
+      <c r="I71" s="10">
+        <v>4</v>
+      </c>
+      <c r="J71" s="10">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>218</v>
+      </c>
+      <c r="L71" t="s">
         <v>201</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="7">
-        <v>5</v>
-      </c>
-      <c r="H71" s="7">
-        <v>22</v>
-      </c>
-      <c r="I71" s="7">
-        <v>4</v>
-      </c>
-      <c r="J71" s="7">
-        <v>22</v>
-      </c>
-      <c r="K71" t="s">
-        <v>221</v>
-      </c>
-      <c r="L71" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
@@ -5693,37 +5710,37 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="10">
+        <v>38</v>
+      </c>
+      <c r="H72" s="10">
+        <v>38</v>
+      </c>
+      <c r="I72" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J72" s="10">
+        <v>22</v>
+      </c>
+      <c r="K72" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" t="s">
         <v>201</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" t="s">
-        <v>220</v>
-      </c>
-      <c r="G72" s="7">
-        <v>38</v>
-      </c>
-      <c r="H72" s="7">
-        <v>38</v>
-      </c>
-      <c r="I72" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="J72" s="7">
-        <v>22</v>
-      </c>
-      <c r="K72" t="s">
-        <v>221</v>
-      </c>
-      <c r="L72" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
@@ -5731,37 +5748,37 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" s="10">
+        <v>38</v>
+      </c>
+      <c r="H73" s="10">
+        <v>38</v>
+      </c>
+      <c r="I73" s="10">
+        <v>38</v>
+      </c>
+      <c r="J73" s="10">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s">
+        <v>218</v>
+      </c>
+      <c r="L73" t="s">
         <v>201</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E73" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" t="s">
-        <v>220</v>
-      </c>
-      <c r="G73" s="7">
-        <v>38</v>
-      </c>
-      <c r="H73" s="7">
-        <v>38</v>
-      </c>
-      <c r="I73" s="7">
-        <v>38</v>
-      </c>
-      <c r="J73" s="7">
-        <v>38</v>
-      </c>
-      <c r="K73" t="s">
-        <v>221</v>
-      </c>
-      <c r="L73" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -5769,37 +5786,37 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>217</v>
+      </c>
+      <c r="G74" s="10">
+        <v>60</v>
+      </c>
+      <c r="H74" s="10">
+        <v>60</v>
+      </c>
+      <c r="I74" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="J74" s="10">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>218</v>
+      </c>
+      <c r="L74" t="s">
         <v>201</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E74" t="s">
-        <v>243</v>
-      </c>
-      <c r="F74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G74" s="7">
-        <v>60</v>
-      </c>
-      <c r="H74" s="7">
-        <v>60</v>
-      </c>
-      <c r="I74" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="J74" s="7">
-        <v>22</v>
-      </c>
-      <c r="K74" t="s">
-        <v>221</v>
-      </c>
-      <c r="L74" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
@@ -5807,37 +5824,37 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" s="10">
+        <v>60</v>
+      </c>
+      <c r="H75" s="10">
+        <v>60</v>
+      </c>
+      <c r="I75" s="10">
+        <v>38</v>
+      </c>
+      <c r="J75" s="10">
+        <v>38</v>
+      </c>
+      <c r="K75" t="s">
+        <v>218</v>
+      </c>
+      <c r="L75" t="s">
         <v>201</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" t="s">
-        <v>220</v>
-      </c>
-      <c r="G75" s="7">
-        <v>60</v>
-      </c>
-      <c r="H75" s="7">
-        <v>60</v>
-      </c>
-      <c r="I75" s="7">
-        <v>38</v>
-      </c>
-      <c r="J75" s="7">
-        <v>38</v>
-      </c>
-      <c r="K75" t="s">
-        <v>221</v>
-      </c>
-      <c r="L75" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
@@ -5845,37 +5862,37 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" t="s">
+        <v>217</v>
+      </c>
+      <c r="G76" s="10">
+        <v>60</v>
+      </c>
+      <c r="H76" s="10">
+        <v>60</v>
+      </c>
+      <c r="I76" s="10">
+        <v>60</v>
+      </c>
+      <c r="J76" s="10">
+        <v>60</v>
+      </c>
+      <c r="K76" t="s">
+        <v>218</v>
+      </c>
+      <c r="L76" t="s">
         <v>201</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E76" t="s">
-        <v>245</v>
-      </c>
-      <c r="F76" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="7">
-        <v>60</v>
-      </c>
-      <c r="H76" s="7">
-        <v>60</v>
-      </c>
-      <c r="I76" s="7">
-        <v>60</v>
-      </c>
-      <c r="J76" s="7">
-        <v>60</v>
-      </c>
-      <c r="K76" t="s">
-        <v>221</v>
-      </c>
-      <c r="L76" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -5883,37 +5900,37 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" s="10">
+        <v>80</v>
+      </c>
+      <c r="H77" s="10">
+        <v>100</v>
+      </c>
+      <c r="I77" s="10">
+        <v>5</v>
+      </c>
+      <c r="J77" s="10">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s">
+        <v>218</v>
+      </c>
+      <c r="L77" t="s">
         <v>201</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="7">
-        <v>80</v>
-      </c>
-      <c r="H77" s="7">
-        <v>100</v>
-      </c>
-      <c r="I77" s="7">
-        <v>5</v>
-      </c>
-      <c r="J77" s="7">
-        <v>38</v>
-      </c>
-      <c r="K77" t="s">
-        <v>221</v>
-      </c>
-      <c r="L77" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
@@ -5921,37 +5938,37 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" s="10">
+        <v>80</v>
+      </c>
+      <c r="H78" s="10">
+        <v>100</v>
+      </c>
+      <c r="I78" s="10">
+        <v>60</v>
+      </c>
+      <c r="J78" s="10">
+        <v>60</v>
+      </c>
+      <c r="K78" t="s">
+        <v>218</v>
+      </c>
+      <c r="L78" t="s">
         <v>201</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" t="s">
-        <v>220</v>
-      </c>
-      <c r="G78" s="7">
-        <v>80</v>
-      </c>
-      <c r="H78" s="7">
-        <v>100</v>
-      </c>
-      <c r="I78" s="7">
-        <v>60</v>
-      </c>
-      <c r="J78" s="7">
-        <v>60</v>
-      </c>
-      <c r="K78" t="s">
-        <v>221</v>
-      </c>
-      <c r="L78" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -5959,37 +5976,37 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" s="10">
+        <v>80</v>
+      </c>
+      <c r="H79" s="10">
+        <v>100</v>
+      </c>
+      <c r="I79" s="10">
+        <v>80</v>
+      </c>
+      <c r="J79" s="10">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s">
+        <v>218</v>
+      </c>
+      <c r="L79" t="s">
         <v>201</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" t="s">
-        <v>248</v>
-      </c>
-      <c r="F79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G79" s="7">
-        <v>80</v>
-      </c>
-      <c r="H79" s="7">
-        <v>100</v>
-      </c>
-      <c r="I79" s="7">
-        <v>80</v>
-      </c>
-      <c r="J79" s="7">
-        <v>100</v>
-      </c>
-      <c r="K79" t="s">
-        <v>221</v>
-      </c>
-      <c r="L79" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
@@ -5997,37 +6014,37 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" s="10">
+        <v>125</v>
+      </c>
+      <c r="H80" s="10">
+        <v>125</v>
+      </c>
+      <c r="I80" s="10">
+        <v>5</v>
+      </c>
+      <c r="J80" s="10">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s">
+        <v>218</v>
+      </c>
+      <c r="L80" t="s">
         <v>201</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" t="s">
-        <v>254</v>
-      </c>
-      <c r="F80" t="s">
-        <v>220</v>
-      </c>
-      <c r="G80" s="7">
-        <v>125</v>
-      </c>
-      <c r="H80" s="7">
-        <v>125</v>
-      </c>
-      <c r="I80" s="7">
-        <v>5</v>
-      </c>
-      <c r="J80" s="7">
-        <v>38</v>
-      </c>
-      <c r="K80" t="s">
-        <v>221</v>
-      </c>
-      <c r="L80" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
@@ -6035,37 +6052,37 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="10">
+        <v>125</v>
+      </c>
+      <c r="H81" s="10">
+        <v>125</v>
+      </c>
+      <c r="I81" s="10">
+        <v>60</v>
+      </c>
+      <c r="J81" s="10">
+        <v>60</v>
+      </c>
+      <c r="K81" t="s">
+        <v>218</v>
+      </c>
+      <c r="L81" t="s">
         <v>201</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E81" t="s">
-        <v>249</v>
-      </c>
-      <c r="F81" t="s">
-        <v>220</v>
-      </c>
-      <c r="G81" s="7">
-        <v>125</v>
-      </c>
-      <c r="H81" s="7">
-        <v>125</v>
-      </c>
-      <c r="I81" s="7">
-        <v>60</v>
-      </c>
-      <c r="J81" s="7">
-        <v>60</v>
-      </c>
-      <c r="K81" t="s">
-        <v>221</v>
-      </c>
-      <c r="L81" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
@@ -6073,37 +6090,37 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="10">
+        <v>125</v>
+      </c>
+      <c r="H82" s="10">
+        <v>125</v>
+      </c>
+      <c r="I82" s="10">
+        <v>80</v>
+      </c>
+      <c r="J82" s="10">
+        <v>100</v>
+      </c>
+      <c r="K82" t="s">
+        <v>218</v>
+      </c>
+      <c r="L82" t="s">
         <v>201</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" t="s">
-        <v>250</v>
-      </c>
-      <c r="F82" t="s">
-        <v>220</v>
-      </c>
-      <c r="G82" s="7">
-        <v>125</v>
-      </c>
-      <c r="H82" s="7">
-        <v>125</v>
-      </c>
-      <c r="I82" s="7">
-        <v>80</v>
-      </c>
-      <c r="J82" s="7">
-        <v>100</v>
-      </c>
-      <c r="K82" t="s">
-        <v>221</v>
-      </c>
-      <c r="L82" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
@@ -6111,37 +6128,37 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" t="s">
+        <v>248</v>
+      </c>
+      <c r="F83" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="10">
+        <v>125</v>
+      </c>
+      <c r="H83" s="10">
+        <v>125</v>
+      </c>
+      <c r="I83" s="10">
+        <v>150</v>
+      </c>
+      <c r="J83" s="10">
+        <v>150</v>
+      </c>
+      <c r="K83" t="s">
+        <v>218</v>
+      </c>
+      <c r="L83" t="s">
         <v>201</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E83" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" t="s">
-        <v>220</v>
-      </c>
-      <c r="G83" s="7">
-        <v>125</v>
-      </c>
-      <c r="H83" s="7">
-        <v>125</v>
-      </c>
-      <c r="I83" s="7">
-        <v>150</v>
-      </c>
-      <c r="J83" s="7">
-        <v>150</v>
-      </c>
-      <c r="K83" t="s">
-        <v>221</v>
-      </c>
-      <c r="L83" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
@@ -6149,30 +6166,30 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>256</v>
+        <v>212</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
-      </c>
-      <c r="G84" s="6">
+        <v>217</v>
+      </c>
+      <c r="G84" s="10">
         <v>2.6</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="10">
         <v>3.2</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="10">
         <v>2</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6181,30 +6198,30 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>257</v>
+        <v>212</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
-        <v>220</v>
-      </c>
-      <c r="G85" s="6">
+        <v>217</v>
+      </c>
+      <c r="G85" s="10">
         <v>2.6</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="10">
         <v>3.2</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="10">
         <v>2.6</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="10">
         <v>3.2</v>
       </c>
     </row>
@@ -6213,30 +6230,30 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C86" t="s">
-        <v>215</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="E86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>220</v>
-      </c>
-      <c r="G86" s="6">
+        <v>217</v>
+      </c>
+      <c r="G86" s="10">
         <v>2.6</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="10">
         <v>3.2</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="10">
         <v>8</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="10">
         <v>8</v>
       </c>
     </row>
@@ -6245,30 +6262,30 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>259</v>
+        <v>212</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F87" t="s">
-        <v>220</v>
-      </c>
-      <c r="G87" s="7">
+        <v>217</v>
+      </c>
+      <c r="G87" s="10">
         <v>14</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="10">
         <v>14</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="10">
         <v>2.6</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="10">
         <v>8</v>
       </c>
     </row>
@@ -6277,30 +6294,30 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>260</v>
+        <v>212</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F88" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" s="7">
+        <v>217</v>
+      </c>
+      <c r="G88" s="10">
         <v>14</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="10">
         <v>14</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="10">
         <v>14</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="10">
         <v>14</v>
       </c>
     </row>
@@ -6309,30 +6326,30 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>261</v>
+        <v>212</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F89" t="s">
-        <v>220</v>
-      </c>
-      <c r="G89" s="7">
+        <v>217</v>
+      </c>
+      <c r="G89" s="10">
         <v>22</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="10">
         <v>22</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="10">
         <v>14</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="10">
         <v>14</v>
       </c>
     </row>
@@ -6341,30 +6358,30 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>262</v>
+        <v>212</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F90" t="s">
-        <v>220</v>
-      </c>
-      <c r="G90" s="7">
+        <v>217</v>
+      </c>
+      <c r="G90" s="10">
         <v>22</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="10">
         <v>22</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="10">
         <v>22</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="10">
         <v>22</v>
       </c>
     </row>
@@ -6373,31 +6390,31 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>271</v>
+        <v>212</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="E91" t="str">
         <f>"スリーブ"&amp;D91&amp;"HR"</f>
         <v>スリーブS2.6HR</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="6">
+        <v>217</v>
+      </c>
+      <c r="G91" s="10">
         <v>2.6</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="10">
         <v>2.6</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="10">
         <v>2.6</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="10">
         <v>2.6</v>
       </c>
     </row>
@@ -6406,31 +6423,31 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>272</v>
+        <v>212</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ref="E92:E93" si="3">"スリーブ"&amp;D92&amp;"HR"</f>
         <v>スリーブS3.2HR</v>
       </c>
       <c r="F92" t="s">
-        <v>220</v>
-      </c>
-      <c r="G92" s="6">
+        <v>217</v>
+      </c>
+      <c r="G92" s="10">
         <v>3.2</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="10">
         <v>3.2</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="10">
         <v>3.2</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="10">
         <v>3.2</v>
       </c>
     </row>
@@ -6439,31 +6456,31 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="3"/>
         <v>スリーブS14HR</v>
       </c>
       <c r="F93" t="s">
-        <v>220</v>
-      </c>
-      <c r="G93" s="7">
+        <v>217</v>
+      </c>
+      <c r="G93" s="10">
         <v>14</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="10">
         <v>14</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="10">
         <v>14</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="10">
         <v>14</v>
       </c>
     </row>
@@ -6472,71 +6489,71 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>276</v>
+        <v>212</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
-      </c>
-      <c r="G94" s="7">
+        <v>217</v>
+      </c>
+      <c r="G94" s="10">
         <v>80</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="10">
         <v>80</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="10">
         <v>80</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="10">
         <v>80</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>278</v>
+        <v>212</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="E95" t="str">
         <f>"AlスリーブCH"&amp;D95&amp;"HR"</f>
         <v>AlスリーブCH58T5HR</v>
       </c>
       <c r="F95" t="s">
-        <v>161</v>
-      </c>
-      <c r="G95" s="7">
+        <v>159</v>
+      </c>
+      <c r="G95" s="10">
         <v>32</v>
       </c>
-      <c r="H95" s="7">
-        <v>60</v>
-      </c>
-      <c r="I95" s="11">
+      <c r="H95" s="10">
+        <v>60</v>
+      </c>
+      <c r="I95" s="10">
         <v>2.6</v>
       </c>
-      <c r="J95" s="11">
+      <c r="J95" s="10">
         <v>5.5</v>
       </c>
       <c r="K95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
@@ -6544,35 +6561,35 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>279</v>
+        <v>212</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ref="E96:E103" si="4">"AlスリーブCH"&amp;D96&amp;"HR"</f>
         <v>AlスリーブCH32T32HR</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
-      </c>
-      <c r="G96" s="7">
+        <v>159</v>
+      </c>
+      <c r="G96" s="10">
         <v>32</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="10">
         <v>38</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="10">
         <v>5</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="10">
         <v>38</v>
       </c>
       <c r="K96" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -6580,35 +6597,35 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="C97" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH120T5HR</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
-      </c>
-      <c r="G97" s="7">
+        <v>159</v>
+      </c>
+      <c r="G97" s="10">
         <v>80</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="10">
         <v>130</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="10">
         <v>2.6</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J97" s="10">
         <v>5.5</v>
       </c>
       <c r="K97" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
@@ -6616,35 +6633,35 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>281</v>
+        <v>212</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH120T32HR</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
-      </c>
-      <c r="G98" s="7">
+        <v>159</v>
+      </c>
+      <c r="G98" s="10">
         <v>80</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="10">
         <v>130</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="10">
         <v>5</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="10">
         <v>38</v>
       </c>
       <c r="K98" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
@@ -6652,35 +6669,35 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>282</v>
+        <v>212</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH120T120HR</v>
       </c>
       <c r="F99" t="s">
-        <v>161</v>
-      </c>
-      <c r="G99" s="7">
+        <v>159</v>
+      </c>
+      <c r="G99" s="10">
         <v>80</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="10">
         <v>130</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="10">
         <v>80</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="10">
         <v>130</v>
       </c>
       <c r="K99" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -6688,35 +6705,35 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>283</v>
+        <v>212</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH240T5HR</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
-      </c>
-      <c r="G100" s="7">
+        <v>159</v>
+      </c>
+      <c r="G100" s="10">
         <v>150</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="10">
         <v>240</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100" s="10">
         <v>2.6</v>
       </c>
-      <c r="J100" s="11">
+      <c r="J100" s="10">
         <v>5.5</v>
       </c>
       <c r="K100" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
@@ -6724,35 +6741,35 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>284</v>
+        <v>212</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH240T58HR</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="7">
+        <v>159</v>
+      </c>
+      <c r="G101" s="10">
         <v>150</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="10">
         <v>240</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="10">
         <v>5</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="10">
         <v>58</v>
       </c>
       <c r="K101" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
@@ -6760,35 +6777,35 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>285</v>
+        <v>212</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH240T120HR</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
-      </c>
-      <c r="G102" s="7">
+        <v>159</v>
+      </c>
+      <c r="G102" s="10">
         <v>150</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="10">
         <v>240</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="10">
         <v>80</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="10">
         <v>130</v>
       </c>
       <c r="K102" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
@@ -6796,35 +6813,35 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>286</v>
+        <v>212</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="4"/>
         <v>AlスリーブCH240T240HR</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" s="7">
+        <v>159</v>
+      </c>
+      <c r="G103" s="10">
         <v>150</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="10">
         <v>240</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="10">
         <v>150</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="10">
         <v>240</v>
       </c>
       <c r="K103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -6832,13 +6849,13 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>289</v>
+        <v>212</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="E104" t="str">
         <f>"Alスリーブ"&amp;D104&amp;"HR"</f>
@@ -6847,16 +6864,16 @@
       <c r="F104" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="10">
         <v>32</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="10">
         <v>32</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="10">
         <v>32</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="10">
         <v>32</v>
       </c>
     </row>
@@ -6865,13 +6882,13 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>290</v>
+        <v>212</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" ref="E105:E107" si="5">"Alスリーブ"&amp;D105&amp;"HR"</f>
@@ -6880,16 +6897,16 @@
       <c r="F105" t="s">
         <v>36</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="10">
         <v>120</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="10">
         <v>130</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="10">
         <v>120</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="10">
         <v>130</v>
       </c>
     </row>
@@ -6898,13 +6915,13 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="5"/>
@@ -6913,16 +6930,16 @@
       <c r="F106" t="s">
         <v>36</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="10">
         <v>240</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="10">
         <v>240</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="10">
         <v>240</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="10">
         <v>240</v>
       </c>
     </row>
@@ -6931,13 +6948,13 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="5"/>
@@ -6946,16 +6963,16 @@
       <c r="F107" t="s">
         <v>36</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="10">
         <v>95</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="10">
         <v>130</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="10">
         <v>95</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="10">
         <v>130</v>
       </c>
     </row>
@@ -6964,31 +6981,31 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>271</v>
+        <v>212</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="E108" t="str">
         <f>D108&amp;"K"</f>
         <v>S2.6K</v>
       </c>
       <c r="F108" t="s">
-        <v>220</v>
-      </c>
-      <c r="G108" s="6">
+        <v>217</v>
+      </c>
+      <c r="G108" s="10">
         <v>2.6</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108" s="10">
         <v>2.6</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="10">
         <v>2.6</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="10">
         <v>2.6</v>
       </c>
     </row>
@@ -6997,31 +7014,31 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>272</v>
+        <v>212</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" ref="E109:E112" si="6">D109&amp;"K"</f>
         <v>S3.2K</v>
       </c>
       <c r="F109" t="s">
-        <v>220</v>
-      </c>
-      <c r="G109" s="6">
+        <v>217</v>
+      </c>
+      <c r="G109" s="10">
         <v>3.2</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H109" s="10">
         <v>3.2</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="10">
         <v>3.2</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="10">
         <v>3.2</v>
       </c>
     </row>
@@ -7030,31 +7047,31 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>295</v>
+        <v>212</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
         <v>S4.0K</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
-      </c>
-      <c r="G110" s="6">
+        <v>217</v>
+      </c>
+      <c r="G110" s="10">
         <v>4</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H110" s="10">
         <v>4</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="10">
         <v>4</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7063,31 +7080,31 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>273</v>
+        <v>212</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
         <v>S14K</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
-      </c>
-      <c r="G111" s="7">
+        <v>217</v>
+      </c>
+      <c r="G111" s="10">
         <v>14</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="10">
         <v>14</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="10">
         <v>14</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7096,31 +7113,31 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>296</v>
+        <v>212</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
         <v>S22K</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
-      </c>
-      <c r="G112" s="7">
+        <v>217</v>
+      </c>
+      <c r="G112" s="10">
         <v>22</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="10">
         <v>22</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="10">
         <v>22</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="10">
         <v>22</v>
       </c>
     </row>
@@ -7129,30 +7146,30 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>298</v>
+        <v>198</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="E113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
-      </c>
-      <c r="G113" s="6">
+        <v>217</v>
+      </c>
+      <c r="G113" s="10">
         <v>2.6</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="10">
         <v>8</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="10">
         <v>2.6</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="10">
         <v>3.2</v>
       </c>
     </row>
@@ -7161,30 +7178,30 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>299</v>
+        <v>198</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="E114" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="7">
+        <v>217</v>
+      </c>
+      <c r="G114" s="10">
         <v>14</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="10">
         <v>14</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="10">
         <v>2.6</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="10">
         <v>8</v>
       </c>
     </row>
@@ -7193,30 +7210,30 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C115" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
-      </c>
-      <c r="G115" s="7">
+        <v>217</v>
+      </c>
+      <c r="G115" s="10">
         <v>14</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="10">
         <v>14</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="10">
         <v>14</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7225,30 +7242,30 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>301</v>
+        <v>198</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
-      </c>
-      <c r="G116" s="6">
+        <v>217</v>
+      </c>
+      <c r="G116" s="10">
         <v>5</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="10">
         <v>22</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="10">
         <v>2.6</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7257,30 +7274,30 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>302</v>
+        <v>198</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
-      </c>
-      <c r="G117" s="7">
+        <v>217</v>
+      </c>
+      <c r="G117" s="10">
         <v>38</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="10">
         <v>38</v>
       </c>
-      <c r="I117" s="6">
+      <c r="I117" s="10">
         <v>2.6</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7289,30 +7306,30 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>304</v>
+        <v>198</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
-      </c>
-      <c r="G118" s="7">
-        <v>60</v>
-      </c>
-      <c r="H118" s="7">
-        <v>60</v>
-      </c>
-      <c r="I118" s="6">
+        <v>217</v>
+      </c>
+      <c r="G118" s="10">
+        <v>60</v>
+      </c>
+      <c r="H118" s="10">
+        <v>60</v>
+      </c>
+      <c r="I118" s="10">
         <v>2.6</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7321,30 +7338,30 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>303</v>
+        <v>198</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="E119" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
-      </c>
-      <c r="G119" s="7">
+        <v>217</v>
+      </c>
+      <c r="G119" s="10">
         <v>100</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="10">
         <v>100</v>
       </c>
-      <c r="I119" s="6">
+      <c r="I119" s="10">
         <v>2.6</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="10">
         <v>14</v>
       </c>
     </row>
@@ -7353,10 +7370,10 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D120" s="4">
         <v>22</v>
@@ -7366,18 +7383,18 @@
         <v>スリーブJ22K</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
-      </c>
-      <c r="G120" s="7">
+        <v>217</v>
+      </c>
+      <c r="G120" s="10">
         <v>22</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="10">
         <v>22</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="10">
         <v>22</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="10">
         <v>22</v>
       </c>
     </row>
@@ -7386,10 +7403,10 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D121" s="4">
         <v>60</v>
@@ -7399,18 +7416,18 @@
         <v>スリーブJ60K</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
-      </c>
-      <c r="G121" s="7">
-        <v>60</v>
-      </c>
-      <c r="H121" s="7">
-        <v>60</v>
-      </c>
-      <c r="I121" s="7">
-        <v>60</v>
-      </c>
-      <c r="J121" s="7">
+        <v>217</v>
+      </c>
+      <c r="G121" s="10">
+        <v>60</v>
+      </c>
+      <c r="H121" s="10">
+        <v>60</v>
+      </c>
+      <c r="I121" s="10">
+        <v>60</v>
+      </c>
+      <c r="J121" s="10">
         <v>60</v>
       </c>
     </row>
@@ -7419,10 +7436,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D122" s="4">
         <v>100</v>
@@ -7432,18 +7449,18 @@
         <v>スリーブJ100K</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
-      </c>
-      <c r="G122" s="7">
+        <v>217</v>
+      </c>
+      <c r="G122" s="10">
         <v>100</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="10">
         <v>100</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="10">
         <v>100</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="10">
         <v>100</v>
       </c>
     </row>
@@ -7452,10 +7469,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D123" s="4">
         <v>200</v>
@@ -7465,18 +7482,18 @@
         <v>スリーブJ200K</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
-      </c>
-      <c r="G123" s="7">
+        <v>217</v>
+      </c>
+      <c r="G123" s="10">
         <v>200</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="10">
         <v>200</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="10">
         <v>200</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J123" s="10">
         <v>200</v>
       </c>
     </row>
@@ -7485,34 +7502,34 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D124" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E124" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F124" t="s">
-        <v>220</v>
-      </c>
-      <c r="G124" s="6">
+        <v>217</v>
+      </c>
+      <c r="G124" s="10">
         <v>2.6</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="10">
         <v>3.2</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="10">
         <v>2.6</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="10">
         <v>3.2</v>
       </c>
       <c r="K124" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -7520,34 +7537,34 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E125" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F125" t="s">
-        <v>220</v>
-      </c>
-      <c r="G125" s="7">
+        <v>217</v>
+      </c>
+      <c r="G125" s="10">
         <v>14</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="10">
         <v>14</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="10">
         <v>2.6</v>
       </c>
-      <c r="J125" s="7">
+      <c r="J125" s="10">
         <v>8</v>
       </c>
       <c r="K125" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
@@ -7555,34 +7572,34 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" t="s">
+        <v>327</v>
+      </c>
+      <c r="E126" t="s">
         <v>313</v>
       </c>
-      <c r="C126" t="s">
-        <v>201</v>
-      </c>
-      <c r="D126" t="s">
-        <v>330</v>
-      </c>
-      <c r="E126" t="s">
-        <v>316</v>
-      </c>
       <c r="F126" t="s">
-        <v>220</v>
-      </c>
-      <c r="G126" s="7">
+        <v>217</v>
+      </c>
+      <c r="G126" s="10">
         <v>14</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="10">
         <v>14</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="10">
         <v>14</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="10">
         <v>14</v>
       </c>
       <c r="K126" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
@@ -7590,34 +7607,34 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D127" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E127" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F127" t="s">
-        <v>220</v>
-      </c>
-      <c r="G127" s="7">
+        <v>217</v>
+      </c>
+      <c r="G127" s="10">
         <v>22</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="10">
         <v>22</v>
       </c>
-      <c r="I127" s="6">
+      <c r="I127" s="10">
         <v>2.6</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="10">
         <v>3.2</v>
       </c>
       <c r="K127" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
@@ -7625,34 +7642,34 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
-      </c>
-      <c r="G128" s="7">
+        <v>217</v>
+      </c>
+      <c r="G128" s="10">
         <v>22</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="10">
         <v>22</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="10">
         <v>14</v>
       </c>
-      <c r="J128" s="7">
+      <c r="J128" s="10">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
@@ -7660,34 +7677,34 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F129" t="s">
-        <v>220</v>
-      </c>
-      <c r="G129" s="7">
+        <v>217</v>
+      </c>
+      <c r="G129" s="10">
         <v>38</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="10">
         <v>38</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I129" s="10">
         <v>3.2</v>
       </c>
-      <c r="J129" s="7">
+      <c r="J129" s="10">
         <v>22</v>
       </c>
       <c r="K129" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -7695,34 +7712,34 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D130" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E130" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F130" t="s">
-        <v>220</v>
-      </c>
-      <c r="G130" s="7">
+        <v>217</v>
+      </c>
+      <c r="G130" s="10">
         <v>38</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="10">
         <v>38</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="10">
         <v>38</v>
       </c>
-      <c r="J130" s="7">
+      <c r="J130" s="10">
         <v>38</v>
       </c>
       <c r="K130" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
@@ -7730,34 +7747,34 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D131" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E131" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F131" t="s">
-        <v>220</v>
-      </c>
-      <c r="G131" s="7">
-        <v>60</v>
-      </c>
-      <c r="H131" s="7">
-        <v>60</v>
-      </c>
-      <c r="I131" s="6">
+        <v>217</v>
+      </c>
+      <c r="G131" s="10">
+        <v>60</v>
+      </c>
+      <c r="H131" s="10">
+        <v>60</v>
+      </c>
+      <c r="I131" s="10">
         <v>3.2</v>
       </c>
-      <c r="J131" s="7">
+      <c r="J131" s="10">
         <v>22</v>
       </c>
       <c r="K131" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
@@ -7765,34 +7782,34 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E132" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F132" t="s">
-        <v>220</v>
-      </c>
-      <c r="G132" s="7">
-        <v>60</v>
-      </c>
-      <c r="H132" s="7">
-        <v>60</v>
-      </c>
-      <c r="I132" s="7">
+        <v>217</v>
+      </c>
+      <c r="G132" s="10">
+        <v>60</v>
+      </c>
+      <c r="H132" s="10">
+        <v>60</v>
+      </c>
+      <c r="I132" s="10">
         <v>38</v>
       </c>
-      <c r="J132" s="7">
+      <c r="J132" s="10">
         <v>38</v>
       </c>
       <c r="K132" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
@@ -7800,34 +7817,34 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C133" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D133" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E133" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F133" t="s">
-        <v>220</v>
-      </c>
-      <c r="G133" s="7">
-        <v>60</v>
-      </c>
-      <c r="H133" s="7">
-        <v>60</v>
-      </c>
-      <c r="I133" s="7">
-        <v>60</v>
-      </c>
-      <c r="J133" s="7">
+        <v>217</v>
+      </c>
+      <c r="G133" s="10">
+        <v>60</v>
+      </c>
+      <c r="H133" s="10">
+        <v>60</v>
+      </c>
+      <c r="I133" s="10">
+        <v>60</v>
+      </c>
+      <c r="J133" s="10">
         <v>60</v>
       </c>
       <c r="K133" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
@@ -7835,34 +7852,34 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E134" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F134" t="s">
-        <v>220</v>
-      </c>
-      <c r="G134" s="7">
+        <v>217</v>
+      </c>
+      <c r="G134" s="10">
         <v>100</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="10">
         <v>100</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="10">
         <v>14</v>
       </c>
-      <c r="J134" s="7">
+      <c r="J134" s="10">
         <v>22</v>
       </c>
       <c r="K134" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
@@ -7870,34 +7887,34 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C135" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D135" t="s">
+        <v>337</v>
+      </c>
+      <c r="E135" t="s">
+        <v>322</v>
+      </c>
+      <c r="F135" t="s">
+        <v>217</v>
+      </c>
+      <c r="G135" s="10">
+        <v>100</v>
+      </c>
+      <c r="H135" s="10">
+        <v>100</v>
+      </c>
+      <c r="I135" s="10">
+        <v>38</v>
+      </c>
+      <c r="J135" s="10">
+        <v>38</v>
+      </c>
+      <c r="K135" t="s">
         <v>340</v>
-      </c>
-      <c r="E135" t="s">
-        <v>325</v>
-      </c>
-      <c r="F135" t="s">
-        <v>220</v>
-      </c>
-      <c r="G135" s="7">
-        <v>100</v>
-      </c>
-      <c r="H135" s="7">
-        <v>100</v>
-      </c>
-      <c r="I135" s="7">
-        <v>38</v>
-      </c>
-      <c r="J135" s="7">
-        <v>38</v>
-      </c>
-      <c r="K135" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
@@ -7905,34 +7922,34 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D136" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E136" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F136" t="s">
-        <v>220</v>
-      </c>
-      <c r="G136" s="7">
+        <v>217</v>
+      </c>
+      <c r="G136" s="10">
         <v>100</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="10">
         <v>100</v>
       </c>
-      <c r="I136" s="7">
-        <v>60</v>
-      </c>
-      <c r="J136" s="7">
+      <c r="I136" s="10">
+        <v>60</v>
+      </c>
+      <c r="J136" s="10">
         <v>60</v>
       </c>
       <c r="K136" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
@@ -7940,34 +7957,34 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C137" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D137" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E137" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F137" t="s">
-        <v>220</v>
-      </c>
-      <c r="G137" s="7">
+        <v>217</v>
+      </c>
+      <c r="G137" s="10">
         <v>100</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="10">
         <v>100</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="10">
         <v>100</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J137" s="10">
         <v>100</v>
       </c>
       <c r="K137" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -7975,10 +7992,10 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D138" s="4">
         <v>25</v>
@@ -7990,20 +8007,20 @@
       <c r="F138" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="10">
         <v>25</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="10">
         <v>32</v>
       </c>
-      <c r="I138" s="6">
+      <c r="I138" s="10">
         <v>3.2</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J138" s="10">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
@@ -8011,10 +8028,10 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D139" s="4">
         <v>58</v>
@@ -8026,20 +8043,20 @@
       <c r="F139" t="s">
         <v>36</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="10">
         <v>58</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="10">
         <v>58</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="10">
         <v>3.2</v>
       </c>
-      <c r="J139" s="7">
+      <c r="J139" s="10">
         <v>14</v>
       </c>
       <c r="K139" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -8047,10 +8064,10 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C140" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D140" s="4">
         <v>200</v>
@@ -8062,20 +8079,20 @@
       <c r="F140" t="s">
         <v>36</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140" s="10">
         <v>120</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="10">
         <v>200</v>
       </c>
-      <c r="I140" s="6">
+      <c r="I140" s="10">
         <v>3.2</v>
       </c>
-      <c r="J140" s="7">
+      <c r="J140" s="10">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -8083,30 +8100,30 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C141" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D141" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E141" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="10">
         <v>14</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="10">
         <v>14</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I141" s="10">
         <v>2.6</v>
       </c>
-      <c r="J141" s="7">
+      <c r="J141" s="10">
         <v>14</v>
       </c>
     </row>
@@ -8115,30 +8132,30 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D142" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G142" s="10">
         <v>5</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="10">
         <v>22</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="10">
         <v>14</v>
       </c>
-      <c r="J142" s="7">
+      <c r="J142" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8147,30 +8164,30 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143" t="s">
         <v>345</v>
       </c>
-      <c r="C143" t="s">
-        <v>201</v>
-      </c>
-      <c r="D143" t="s">
-        <v>348</v>
-      </c>
       <c r="E143" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="10">
         <v>38</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="10">
         <v>38</v>
       </c>
-      <c r="I143" s="6">
+      <c r="I143" s="10">
         <v>2.6</v>
       </c>
-      <c r="J143" s="7">
+      <c r="J143" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8179,30 +8196,30 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C144" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E144" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="10">
         <v>38</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="10">
         <v>38</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144" s="10">
         <v>38</v>
       </c>
-      <c r="J144" s="7">
+      <c r="J144" s="10">
         <v>38</v>
       </c>
     </row>
@@ -8211,30 +8228,30 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D145" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E145" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="10">
         <v>50</v>
       </c>
-      <c r="H145" s="7">
-        <v>60</v>
-      </c>
-      <c r="I145" s="6">
+      <c r="H145" s="10">
+        <v>60</v>
+      </c>
+      <c r="I145" s="10">
         <v>5</v>
       </c>
-      <c r="J145" s="6">
+      <c r="J145" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8243,30 +8260,30 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C146" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D146" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E146" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="10">
         <v>50</v>
       </c>
-      <c r="H146" s="7">
-        <v>60</v>
-      </c>
-      <c r="I146" s="7">
+      <c r="H146" s="10">
+        <v>60</v>
+      </c>
+      <c r="I146" s="10">
         <v>38</v>
       </c>
-      <c r="J146" s="7">
+      <c r="J146" s="10">
         <v>38</v>
       </c>
     </row>
@@ -8275,30 +8292,30 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D147" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E147" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="10">
         <v>50</v>
       </c>
-      <c r="H147" s="7">
-        <v>60</v>
-      </c>
-      <c r="I147" s="7">
+      <c r="H147" s="10">
+        <v>60</v>
+      </c>
+      <c r="I147" s="10">
         <v>50</v>
       </c>
-      <c r="J147" s="7">
+      <c r="J147" s="10">
         <v>60</v>
       </c>
     </row>
@@ -8307,30 +8324,30 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C148" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D148" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E148" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" s="7">
-        <v>60</v>
-      </c>
-      <c r="H148" s="7">
-        <v>60</v>
-      </c>
-      <c r="I148" s="7">
-        <v>60</v>
-      </c>
-      <c r="J148" s="7">
+      <c r="G148" s="10">
+        <v>60</v>
+      </c>
+      <c r="H148" s="10">
+        <v>60</v>
+      </c>
+      <c r="I148" s="10">
+        <v>60</v>
+      </c>
+      <c r="J148" s="10">
         <v>60</v>
       </c>
     </row>
@@ -8339,30 +8356,30 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D149" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E149" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="10">
         <v>80</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="10">
         <v>100</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149" s="10">
         <v>5</v>
       </c>
-      <c r="J149" s="7">
+      <c r="J149" s="10">
         <v>38</v>
       </c>
     </row>
@@ -8371,30 +8388,30 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C150" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D150" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E150" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="10">
         <v>80</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="10">
         <v>100</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="10">
         <v>50</v>
       </c>
-      <c r="J150" s="7">
+      <c r="J150" s="10">
         <v>60</v>
       </c>
     </row>
@@ -8403,30 +8420,30 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C151" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D151" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E151" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151" s="10">
         <v>80</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="10">
         <v>100</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="10">
         <v>80</v>
       </c>
-      <c r="J151" s="7">
+      <c r="J151" s="10">
         <v>100</v>
       </c>
     </row>
@@ -8435,30 +8452,30 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C152" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D152" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E152" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152" s="10">
         <v>12</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="10">
         <v>125</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="10">
         <v>80</v>
       </c>
-      <c r="J152" s="7">
+      <c r="J152" s="10">
         <v>100</v>
       </c>
     </row>
@@ -8467,30 +8484,30 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C153" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E153" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="10">
         <v>150</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="10">
         <v>150</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153" s="10">
         <v>80</v>
       </c>
-      <c r="J153" s="7">
+      <c r="J153" s="10">
         <v>100</v>
       </c>
     </row>
@@ -8499,30 +8516,30 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D154" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E154" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154" s="10">
         <v>150</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="10">
         <v>150</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="10">
         <v>150</v>
       </c>
-      <c r="J154" s="7">
+      <c r="J154" s="10">
         <v>150</v>
       </c>
     </row>
@@ -8531,30 +8548,30 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C155" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E155" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="10">
         <v>200</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="10">
         <v>200</v>
       </c>
-      <c r="I155" s="7">
-        <v>60</v>
-      </c>
-      <c r="J155" s="7">
+      <c r="I155" s="10">
+        <v>60</v>
+      </c>
+      <c r="J155" s="10">
         <v>150</v>
       </c>
     </row>
@@ -8563,30 +8580,30 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C156" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156" s="10">
         <v>200</v>
       </c>
-      <c r="H156" s="7">
+      <c r="H156" s="10">
         <v>200</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="10">
         <v>200</v>
       </c>
-      <c r="J156" s="7">
+      <c r="J156" s="10">
         <v>200</v>
       </c>
     </row>
@@ -8595,30 +8612,30 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D157" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E157" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="10">
         <v>5</v>
       </c>
-      <c r="H157" s="7">
+      <c r="H157" s="10">
         <v>22</v>
       </c>
-      <c r="I157" s="6">
+      <c r="I157" s="10">
         <v>5.5</v>
       </c>
-      <c r="J157" s="6">
+      <c r="J157" s="10">
         <v>5.5</v>
       </c>
     </row>
@@ -8627,16 +8644,16 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
+        <v>375</v>
+      </c>
+      <c r="C158" t="s">
+        <v>376</v>
+      </c>
+      <c r="D158" t="s">
+        <v>345</v>
+      </c>
+      <c r="E158" t="s">
         <v>378</v>
-      </c>
-      <c r="C158" t="s">
-        <v>379</v>
-      </c>
-      <c r="D158" t="s">
-        <v>348</v>
-      </c>
-      <c r="E158" t="s">
-        <v>381</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
@@ -8647,16 +8664,16 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D159" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" t="s">
         <v>379</v>
-      </c>
-      <c r="D159" t="s">
-        <v>349</v>
-      </c>
-      <c r="E159" t="s">
-        <v>382</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -8667,16 +8684,16 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D160" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E160" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
@@ -8687,16 +8704,16 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D161" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E161" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -8707,16 +8724,16 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C162" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D162" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E162" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
@@ -8734,7 +8751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022E8996-E8DF-4147-9C3C-908A128AAFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8763,27 +8780,27 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -8794,16 +8811,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>900</v>
@@ -8814,16 +8831,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
       </c>
       <c r="E4">
         <v>1200</v>
@@ -8834,16 +8851,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -8854,16 +8871,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>1500</v>
@@ -8874,16 +8891,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>1500</v>
@@ -8894,16 +8911,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -8920,7 +8937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25175B55-8905-482A-B97E-12E5F51CB432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8973,7 +8990,7 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -8981,7 +8998,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -8992,7 +9009,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>25</v>
       </c>
       <c r="G2" s="4">
@@ -9010,7 +9027,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -9021,7 +9038,7 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>95</v>
       </c>
       <c r="G3" s="5">
@@ -9039,7 +9056,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -9050,7 +9067,7 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>150</v>
       </c>
       <c r="G4" s="5">
@@ -9068,7 +9085,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -9079,7 +9096,7 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>25</v>
       </c>
       <c r="G5" s="4">
@@ -9103,7 +9120,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -9114,7 +9131,7 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>120</v>
       </c>
       <c r="G6" s="5">
@@ -9138,7 +9155,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -9149,7 +9166,7 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>400</v>
       </c>
       <c r="G7" s="4">
@@ -9173,7 +9190,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -9184,7 +9201,7 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="5">
@@ -9197,7 +9214,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -9208,7 +9225,7 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>60</v>
       </c>
       <c r="G9" s="4">
@@ -9221,7 +9238,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -9232,7 +9249,7 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>80</v>
       </c>
       <c r="G10" s="5">
@@ -9245,7 +9262,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -9256,7 +9273,7 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>125</v>
       </c>
       <c r="G11" s="5">
@@ -9272,7 +9289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D63E90C-BE91-41B7-B11D-FEF2AC8A13CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
